--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H2">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I2">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J2">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N2">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O2">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P2">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q2">
-        <v>8.789797549120568</v>
+        <v>13.00427437808033</v>
       </c>
       <c r="R2">
-        <v>8.789797549120568</v>
+        <v>117.038469402723</v>
       </c>
       <c r="S2">
-        <v>0.1153157950822228</v>
+        <v>0.08942254331585485</v>
       </c>
       <c r="T2">
-        <v>0.1153157950822228</v>
+        <v>0.105772831700389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H3">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I3">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J3">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N3">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P3">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q3">
-        <v>23.20949296010529</v>
+        <v>31.44170969599734</v>
       </c>
       <c r="R3">
-        <v>23.20949296010529</v>
+        <v>282.975387263976</v>
       </c>
       <c r="S3">
-        <v>0.3044917837063921</v>
+        <v>0.2162056540389528</v>
       </c>
       <c r="T3">
-        <v>0.3044917837063921</v>
+        <v>0.2557373499941598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H4">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I4">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J4">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N4">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O4">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P4">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q4">
-        <v>4.765099471300595</v>
+        <v>7.040044436669445</v>
       </c>
       <c r="R4">
-        <v>4.765099471300595</v>
+        <v>63.36039993002501</v>
       </c>
       <c r="S4">
-        <v>0.06251466329095204</v>
+        <v>0.04841013502796822</v>
       </c>
       <c r="T4">
-        <v>0.06251466329095204</v>
+        <v>0.05726159059041788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H5">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I5">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J5">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N5">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O5">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P5">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q5">
-        <v>6.118899188301836</v>
+        <v>7.959809792470556</v>
       </c>
       <c r="R5">
-        <v>6.118899188301836</v>
+        <v>71.638288132235</v>
       </c>
       <c r="S5">
-        <v>0.08027553774518857</v>
+        <v>0.05473480605368743</v>
       </c>
       <c r="T5">
-        <v>0.08027553774518857</v>
+        <v>0.06474268360295707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22920295100508</v>
+        <v>1.584700333333333</v>
       </c>
       <c r="H6">
-        <v>1.22920295100508</v>
+        <v>4.754101</v>
       </c>
       <c r="I6">
-        <v>0.7186151270481176</v>
+        <v>0.517828937744538</v>
       </c>
       <c r="J6">
-        <v>0.7186151270481176</v>
+        <v>0.5695117169694714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N6">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O6">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P6">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q6">
-        <v>11.89222079478694</v>
+        <v>15.8594408538995</v>
       </c>
       <c r="R6">
-        <v>11.89222079478694</v>
+        <v>95.156645123397</v>
       </c>
       <c r="S6">
-        <v>0.1560173472233621</v>
+        <v>0.1090557993080746</v>
       </c>
       <c r="T6">
-        <v>0.1560173472233621</v>
+        <v>0.08599726108154777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H7">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J7">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N7">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O7">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P7">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q7">
-        <v>3.441781244978508</v>
+        <v>5.211454817207668</v>
       </c>
       <c r="R7">
-        <v>3.441781244978508</v>
+        <v>46.903093354869</v>
       </c>
       <c r="S7">
-        <v>0.04515368397802166</v>
+        <v>0.0358360282612836</v>
       </c>
       <c r="T7">
-        <v>0.04515368397802166</v>
+        <v>0.04238839609719613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H8">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J8">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N8">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P8">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q8">
-        <v>9.08803611563766</v>
+        <v>12.60024548025867</v>
       </c>
       <c r="R8">
-        <v>9.08803611563766</v>
+        <v>113.402209322328</v>
       </c>
       <c r="S8">
-        <v>0.1192284696608929</v>
+        <v>0.08664428052579763</v>
       </c>
       <c r="T8">
-        <v>0.1192284696608929</v>
+        <v>0.102486582935643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H9">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J9">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N9">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O9">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P9">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q9">
-        <v>1.865848433837965</v>
+        <v>2.821293401397222</v>
       </c>
       <c r="R9">
-        <v>1.865848433837965</v>
+        <v>25.391640612575</v>
       </c>
       <c r="S9">
-        <v>0.02447858377266862</v>
+        <v>0.01940033131094399</v>
       </c>
       <c r="T9">
-        <v>0.02447858377266862</v>
+        <v>0.02294754658717513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.481313436333332</v>
+        <v>0.6350676666666667</v>
       </c>
       <c r="H10">
-        <v>0.481313436333332</v>
+        <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2813848729518825</v>
+        <v>0.2075196226747617</v>
       </c>
       <c r="J10">
-        <v>0.2813848729518825</v>
+        <v>0.2282314640991825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N10">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O10">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P10">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q10">
-        <v>2.39594966192578</v>
+        <v>3.189888792022778</v>
       </c>
       <c r="R10">
-        <v>2.39594966192578</v>
+        <v>28.708999128205</v>
       </c>
       <c r="S10">
-        <v>0.03143312899960906</v>
+        <v>0.02193493926567893</v>
       </c>
       <c r="T10">
-        <v>0.03143312899960906</v>
+        <v>0.02594558992928518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6350676666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.905203</v>
+      </c>
+      <c r="I11">
+        <v>0.2075196226747617</v>
+      </c>
+      <c r="J11">
+        <v>0.2282314640991825</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.0078485</v>
+      </c>
+      <c r="N11">
+        <v>20.015697</v>
+      </c>
+      <c r="O11">
+        <v>0.2106019794549903</v>
+      </c>
+      <c r="P11">
+        <v>0.1510017415254648</v>
+      </c>
+      <c r="Q11">
+        <v>6.3556609952485</v>
+      </c>
+      <c r="R11">
+        <v>38.133965971491</v>
+      </c>
+      <c r="S11">
+        <v>0.04370404331105749</v>
+      </c>
+      <c r="T11">
+        <v>0.03446334854988316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.022067</v>
+      </c>
+      <c r="I12">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J12">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.206141000000001</v>
+      </c>
+      <c r="N12">
+        <v>24.618423</v>
+      </c>
+      <c r="O12">
+        <v>0.1726874201070044</v>
+      </c>
+      <c r="P12">
+        <v>0.185725470694853</v>
+      </c>
+      <c r="Q12">
+        <v>0.06036163781566667</v>
+      </c>
+      <c r="R12">
+        <v>0.543254740341</v>
+      </c>
+      <c r="S12">
+        <v>0.0004150705387519047</v>
+      </c>
+      <c r="T12">
+        <v>0.0004909632919310052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.022067</v>
+      </c>
+      <c r="I13">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J13">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.840792</v>
+      </c>
+      <c r="N13">
+        <v>59.522376</v>
+      </c>
+      <c r="O13">
+        <v>0.4175233137426826</v>
+      </c>
+      <c r="P13">
+        <v>0.4490466874939968</v>
+      </c>
+      <c r="Q13">
+        <v>0.1459422523546667</v>
+      </c>
+      <c r="R13">
+        <v>1.313480271192</v>
+      </c>
+      <c r="S13">
+        <v>0.001003556753985153</v>
+      </c>
+      <c r="T13">
+        <v>0.001187050107332832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J14">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.442508333333334</v>
+      </c>
+      <c r="N14">
+        <v>13.327525</v>
+      </c>
+      <c r="O14">
+        <v>0.09348673181306551</v>
+      </c>
+      <c r="P14">
+        <v>0.100545061469714</v>
+      </c>
+      <c r="Q14">
+        <v>0.03267761046388889</v>
+      </c>
+      <c r="R14">
+        <v>0.294098494175</v>
+      </c>
+      <c r="S14">
+        <v>0.0002247041974207478</v>
+      </c>
+      <c r="T14">
+        <v>0.0002657897927618179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J15">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.022911666666666</v>
+      </c>
+      <c r="N15">
+        <v>15.068735</v>
+      </c>
+      <c r="O15">
+        <v>0.1057005548822571</v>
+      </c>
+      <c r="P15">
+        <v>0.1136810388159715</v>
+      </c>
+      <c r="Q15">
+        <v>0.03694686391611111</v>
+      </c>
+      <c r="R15">
+        <v>0.332521775245</v>
+      </c>
+      <c r="S15">
+        <v>0.0002540612757673261</v>
+      </c>
+      <c r="T15">
+        <v>0.0003005146081386267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.002403594532217283</v>
+      </c>
+      <c r="J16">
+        <v>0.002643489286063827</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.0078485</v>
+      </c>
+      <c r="N16">
+        <v>20.015697</v>
+      </c>
+      <c r="O16">
+        <v>0.2106019794549903</v>
+      </c>
+      <c r="P16">
+        <v>0.1510017415254648</v>
+      </c>
+      <c r="Q16">
+        <v>0.0736143976165</v>
+      </c>
+      <c r="R16">
+        <v>0.441686385699</v>
+      </c>
+      <c r="S16">
+        <v>0.0005062017662921513</v>
+      </c>
+      <c r="T16">
+        <v>0.0003991714858995454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.833154</v>
+      </c>
+      <c r="H17">
+        <v>1.666308</v>
+      </c>
+      <c r="I17">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J17">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.206141000000001</v>
+      </c>
+      <c r="N17">
+        <v>24.618423</v>
+      </c>
+      <c r="O17">
+        <v>0.1726874201070044</v>
+      </c>
+      <c r="P17">
+        <v>0.185725470694853</v>
+      </c>
+      <c r="Q17">
+        <v>6.836979198714</v>
+      </c>
+      <c r="R17">
+        <v>41.021875192284</v>
+      </c>
+      <c r="S17">
+        <v>0.04701377799111402</v>
+      </c>
+      <c r="T17">
+        <v>0.0370732796053369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="H11">
-        <v>0.481313436333332</v>
-      </c>
-      <c r="I11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="J11">
-        <v>0.2813848729518825</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.674741494122721</v>
-      </c>
-      <c r="N11">
-        <v>9.674741494122721</v>
-      </c>
-      <c r="O11">
-        <v>0.2171083537640522</v>
-      </c>
-      <c r="P11">
-        <v>0.2171083537640522</v>
-      </c>
-      <c r="Q11">
-        <v>4.656583074172882</v>
-      </c>
-      <c r="R11">
-        <v>4.656583074172882</v>
-      </c>
-      <c r="S11">
-        <v>0.06109100654069018</v>
-      </c>
-      <c r="T11">
-        <v>0.06109100654069018</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.833154</v>
+      </c>
+      <c r="H18">
+        <v>1.666308</v>
+      </c>
+      <c r="I18">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J18">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.840792</v>
+      </c>
+      <c r="N18">
+        <v>59.522376</v>
+      </c>
+      <c r="O18">
+        <v>0.4175233137426826</v>
+      </c>
+      <c r="P18">
+        <v>0.4490466874939968</v>
+      </c>
+      <c r="Q18">
+        <v>16.530435217968</v>
+      </c>
+      <c r="R18">
+        <v>99.182611307808</v>
+      </c>
+      <c r="S18">
+        <v>0.113669822423947</v>
+      </c>
+      <c r="T18">
+        <v>0.08963570445686123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.833154</v>
+      </c>
+      <c r="H19">
+        <v>1.666308</v>
+      </c>
+      <c r="I19">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J19">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.442508333333334</v>
+      </c>
+      <c r="N19">
+        <v>13.327525</v>
+      </c>
+      <c r="O19">
+        <v>0.09348673181306551</v>
+      </c>
+      <c r="P19">
+        <v>0.100545061469714</v>
+      </c>
+      <c r="Q19">
+        <v>3.70129358795</v>
+      </c>
+      <c r="R19">
+        <v>22.2077615277</v>
+      </c>
+      <c r="S19">
+        <v>0.02545156127673255</v>
+      </c>
+      <c r="T19">
+        <v>0.02007013449935919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.833154</v>
+      </c>
+      <c r="H20">
+        <v>1.666308</v>
+      </c>
+      <c r="I20">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J20">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.022911666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.068735</v>
+      </c>
+      <c r="O20">
+        <v>0.1057005548822571</v>
+      </c>
+      <c r="P20">
+        <v>0.1136810388159715</v>
+      </c>
+      <c r="Q20">
+        <v>4.184858946729999</v>
+      </c>
+      <c r="R20">
+        <v>25.10915368038</v>
+      </c>
+      <c r="S20">
+        <v>0.02877674828712341</v>
+      </c>
+      <c r="T20">
+        <v>0.02269225067559065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.833154</v>
+      </c>
+      <c r="H21">
+        <v>1.666308</v>
+      </c>
+      <c r="I21">
+        <v>0.272247845048483</v>
+      </c>
+      <c r="J21">
+        <v>0.1996133296452823</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.0078485</v>
+      </c>
+      <c r="N21">
+        <v>20.015697</v>
+      </c>
+      <c r="O21">
+        <v>0.2106019794549903</v>
+      </c>
+      <c r="P21">
+        <v>0.1510017415254648</v>
+      </c>
+      <c r="Q21">
+        <v>8.338079009168998</v>
+      </c>
+      <c r="R21">
+        <v>33.35231603667599</v>
+      </c>
+      <c r="S21">
+        <v>0.057335935069566</v>
+      </c>
+      <c r="T21">
+        <v>0.03014196040813431</v>
       </c>
     </row>
   </sheetData>
